--- a/tests/test1/output/main-loc.xlsx
+++ b/tests/test1/output/main-loc.xlsx
@@ -28,24 +28,39 @@
     <x:t>Comments</x:t>
   </x:si>
   <x:si>
+    <x:t>scene1_Scene1_Part1_S494</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a scene.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FRED</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>scene1_Scene1_Part3_9MXL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Let's see if this works, shall we?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DAVE</x:t>
+  </x:si>
+  <x:si>
     <x:t>scene1_Scene1_Part4_T9GZ</x:t>
   </x:si>
   <x:si>
     <x:t>Go right</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
   </x:si>
   <x:si>
     <x:t>Go right!</x:t>
   </x:si>
   <x:si>
-    <x:t>FRED</x:t>
-  </x:si>
-  <x:si>
     <x:t>scene1_Scene1_Part4_9L7I</x:t>
   </x:si>
   <x:si>
@@ -79,10 +94,394 @@
     <x:t>GEORGE</x:t>
   </x:si>
   <x:si>
+    <x:t>scene1_Scene1_Right_WM69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>You sure you want to go right?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>scene1_Scene1_Left_MIM6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>You sure you want to go left?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>scene1_Scene1_OtherContent_FSDK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This content is nothing at all to do with Dink!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Intro_FDAP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a test file.</x:t>
+  </x:si>
+  <x:si>
     <x:t>main_Intro2_PCBU</x:t>
   </x:si>
   <x:si>
     <x:t>LAURA: This is an earlier line I am saying.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_16U4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a line I am saying.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAURA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment for a line. Another comment for the same line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_FF1T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is another line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This comment goes to the localisers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_BQ1E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a loud line!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fred is angry.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_IQIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glad that's over with!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_O037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_UWZ2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_1ZG8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_JFG1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_X291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Response to Bark 4.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JIM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_L2SX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_N07F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_7ZMT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a recording line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartA_U9ZN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a line hidden by a false clause.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartB_VPX8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartB_FH4U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartB_1RQS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is also a line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartC_JITN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a first line about monkeys.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartC_GUS9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a second line about monkeys.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartC_3VZB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a third monkey line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartC_A18G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a final monkey line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartD_UC9D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartD_08WO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartE_81AO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodbye!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartE_JY1W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seeya!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartE_QEM8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Whoops!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartE_KABN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Responds.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_41YM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a conversation.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_YTUY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>You're right, it is! You got a question?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_PZFP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I suppose I do.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_I7F9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_PACN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Really?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_UKSU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I don't.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_60XU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_9ZRB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>That seems unlikely.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_49C7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anyway, cold in here isn't it.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_6B6A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>What do you want to do?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_NDCT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Talk about the big room.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_ZSRF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Talk about the small room.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_BigRoom_9CMB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I want to talk about the big room.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_BigRoom_GPMN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Well, it's big.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_SmallRoom_P8X1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I want to talk about the small room.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_SmallRoom_413C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wel, it's quite small.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Hub_4ZNX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Any more questions?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Hub_22NH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>What colour is the sky?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Hub_UYYD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>What colour is the sky? Green or grey?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Hub_A048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>It's pink, obviously.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Hub_SHPR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Why are monkeys green?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Hub_L1BZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Why are monkeys green? It's a bit weird?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Hub_Z1BD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grass-stains.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Hub_M9X8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Something bigger?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Hub_P11R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(Leave.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Bigger_TY68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Is there something bigger?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Bigger_MFAH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yeah, a real big thing.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Bigger_C70O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>With multiple lines.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Flow_5QGJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I am the colour of night.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Flow_EPML</x:t>
+  </x:si>
+  <x:si>
+    <x:t>What a load of nonsense.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Flow_HWO9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Branch 1.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Flow_IGPY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Branch 2.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Flow_QCX4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Branch 3.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Flow_EEQU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>And we're back.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -173,8 +572,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D9" totalsRowShown="0">
-  <x:autoFilter ref="A1:D9"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D75" totalsRowShown="0">
+  <x:autoFilter ref="A1:D75"/>
   <x:tableColumns count="4">
     <x:tableColumn id="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" name="Text" dataDxfId="0"/>
@@ -473,7 +872,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D9"/>
+  <x:dimension ref="A1:D75"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -482,10 +881,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="5" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="26.210625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="36.710625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="34.585625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="37.960625" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="9.960625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="12.210625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="48.210625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4" ht="13.5" customHeight="1">
@@ -513,91 +912,91 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A3" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A5" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A6" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A7" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A8" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4" ht="13.5" customHeight="1">
@@ -611,7 +1010,931 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A10" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A11" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A12" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A13" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A14" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B14" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A15" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B15" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C15" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A16" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B16" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C16" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A17" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B17" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C17" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A18" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B18" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C18" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A19" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B19" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C19" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A20" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B20" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C20" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A21" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B21" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C21" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A22" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B22" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C22" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A23" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B23" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C23" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D23" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A24" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B24" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C24" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A25" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B25" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C25" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D25" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A26" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B26" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C26" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D26" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A27" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B27" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C27" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D27" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A28" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B28" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C28" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D28" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A29" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B29" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C29" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D29" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A30" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B30" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C30" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A31" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B31" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C31" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D31" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A32" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B32" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C32" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A33" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B33" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C33" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D33" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A34" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B34" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C34" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D34" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A35" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B35" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C35" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D35" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A36" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B36" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C36" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D36" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A37" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B37" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C37" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D37" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A38" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B38" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C38" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D38" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A39" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B39" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C39" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D39" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A40" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B40" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C40" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D40" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A41" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B41" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C41" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D41" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A42" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B42" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C42" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D42" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A43" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B43" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C43" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A44" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B44" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C44" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A45" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B45" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C45" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A46" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B46" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C46" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A47" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B47" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C47" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D47" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A48" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B48" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C48" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D48" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A49" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B49" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C49" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D49" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A50" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B50" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C50" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D50" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A51" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B51" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C51" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D51" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A52" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B52" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C52" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D52" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A53" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B53" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C53" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D53" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A54" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B54" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C54" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D54" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A55" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B55" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C55" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D55" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A56" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B56" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C56" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D56" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A57" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B57" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C57" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D57" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A58" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B58" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C58" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D58" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A59" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B59" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C59" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D59" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A60" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B60" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C60" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D60" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A61" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B61" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C61" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D61" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A62" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B62" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C62" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D62" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A63" s="1" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B63" s="1" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C63" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D63" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A64" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B64" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C64" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D64" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A65" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B65" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C65" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D65" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A66" s="1" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B66" s="1" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C66" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D66" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A67" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B67" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C67" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D67" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A68" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B68" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C68" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D68" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A69" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B69" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C69" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D69" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A70" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B70" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C70" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D70" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A71" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B71" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C71" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D71" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A72" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B72" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C72" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D72" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A73" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B73" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C73" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D73" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A74" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B74" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C74" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D74" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A75" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B75" s="1" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="C75" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D75" s="1" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/tests/test1/output/main-loc.xlsx
+++ b/tests/test1/output/main-loc.xlsx
@@ -28,18 +28,192 @@
     <x:t>Comments</x:t>
   </x:si>
   <x:si>
+    <x:t>main_Intro_FDAP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a test file.</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>main_Intro2_PCBU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAURA: This is an earlier line I am saying.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_16U4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a line I am saying.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAURA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment for a line. Another comment for the same line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_FF1T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is another line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This comment goes to the localisers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_BQ1E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a loud line!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FRED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fred is angry.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_IQIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glad that's over with!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_O037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_UWZ2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_1ZG8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_JFG1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_X291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Response to Bark 4.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JIM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_L2SX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_N07F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_7ZMT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a recording line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartA_U9ZN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a line hidden by a false clause.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartB_VPX8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartB_FH4U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartB_1RQS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is also a line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartC_JITN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a first line about monkeys.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartC_GUS9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a second line about monkeys.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartC_3VZB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a third monkey line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartC_A18G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a final monkey line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartD_UC9D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartD_08WO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartE_81AO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodbye!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartE_JY1W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seeya!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartE_QEM8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Whoops!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartE_KABN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Responds.</x:t>
+  </x:si>
+  <x:si>
     <x:t>scene1_Scene1_Part1_S494</x:t>
   </x:si>
   <x:si>
     <x:t>This is a scene.</x:t>
   </x:si>
   <x:si>
-    <x:t>FRED</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
     <x:t>scene1_Scene1_Part3_9MXL</x:t>
   </x:si>
   <x:si>
@@ -85,15 +259,39 @@
     <x:t>Carry on then.</x:t>
   </x:si>
   <x:si>
+    <x:t>scene1_Scene1_Part4_P46B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trying dialogue here.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OPTION "Trying dialogue here."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>scene1_Scene1_Part4_4NZN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>By George, I think it works!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GEORGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>scene1_Scene1_Part4_6IBF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trying dialogue with no line underneath.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OPTION "Trying dialogue with no line underneath."</x:t>
+  </x:si>
+  <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
   </x:si>
   <x:si>
     <x:t>Okay.</x:t>
   </x:si>
   <x:si>
-    <x:t>GEORGE</x:t>
-  </x:si>
-  <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
   </x:si>
   <x:si>
@@ -110,180 +308,6 @@
   </x:si>
   <x:si>
     <x:t>This content is nothing at all to do with Dink!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Intro_FDAP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a test file.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Intro2_PCBU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LAURA: This is an earlier line I am saying.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_TestScene_16U4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a line I am saying.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LAURA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment for a line. Another comment for the same line.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_TestScene_FF1T</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is another line.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This comment goes to the localisers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_TestScene_BQ1E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a loud line!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fred is angry.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_TestScene_IQIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glad that's over with!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_O037</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bark1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_UWZ2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bark2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_1ZG8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bark3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_JFG1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bark4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_X291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Response to Bark 4.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JIM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_L2SX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bark5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_N07F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bark6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_7ZMT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a recording line.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartA_U9ZN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a line hidden by a false clause.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartB_VPX8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a line.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartB_FH4U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartB_1RQS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is also a line.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartC_JITN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a first line about monkeys.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartC_GUS9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a second line about monkeys.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartC_3VZB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a third monkey line.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartC_A18G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a final monkey line.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartD_UC9D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartD_08WO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartE_81AO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodbye!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartE_JY1W</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seeya!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartE_QEM8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Whoops!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartE_KABN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Responds.</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_41YM</x:t>
@@ -572,8 +596,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D75" totalsRowShown="0">
-  <x:autoFilter ref="A1:D75"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D78" totalsRowShown="0">
+  <x:autoFilter ref="A1:D78"/>
   <x:tableColumns count="4">
     <x:tableColumn id="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" name="Text" dataDxfId="0"/>
@@ -872,7 +896,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D75"/>
+  <x:dimension ref="A1:D78"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -912,35 +936,35 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A3" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A4" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B4" s="1" t="s">
+      <x:c r="D4" s="1" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4" ht="13.5" customHeight="1">
@@ -951,178 +975,178 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A6" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A7" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A8" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A9" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A10" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A11" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A12" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A13" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A14" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A15" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A16" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A17" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4" ht="13.5" customHeight="1">
@@ -1130,293 +1154,293 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A19" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A20" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A21" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A22" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A23" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A24" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A25" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A26" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A27" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B27" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A28" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D28" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A29" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C29" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D29" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A30" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B30" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A31" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B31" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A32" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A33" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B33" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A34" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B34" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C34" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D34" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A35" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B35" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A36" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B36" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A37" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B37" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A38" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B38" s="1" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="B38" s="1" t="s">
+      <x:c r="C38" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D38" s="1" t="s">
         <x:v>83</x:v>
-      </x:c>
-      <x:c r="C38" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D38" s="1" t="s">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4" ht="13.5" customHeight="1">
@@ -1427,514 +1451,556 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A40" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B40" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A41" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B41" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A42" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B42" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A43" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B43" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A44" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B44" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A45" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B45" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A46" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B46" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A47" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B47" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A48" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B48" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A49" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B49" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A50" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B50" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D50" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A51" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B51" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A52" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B52" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A53" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B53" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A54" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B54" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A55" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B55" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A56" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B56" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A57" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B57" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A58" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B58" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A59" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B59" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A60" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B60" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A61" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B61" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A62" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B62" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A63" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B63" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A64" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B64" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A65" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B65" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A66" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B66" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A67" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B67" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A68" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B68" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C68" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D68" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A69" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B69" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C69" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D69" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A70" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B70" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C70" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D70" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A71" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B71" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C71" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D71" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A72" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B72" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C72" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D72" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A73" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B73" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C73" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D73" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A74" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B74" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C74" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D74" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A75" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B75" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C75" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D75" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A76" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B76" s="1" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="C76" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D76" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A77" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B77" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C77" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D77" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A78" s="1" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B78" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C78" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D78" s="1" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/tests/test1/output/main-loc.xlsx
+++ b/tests/test1/output/main-loc.xlsx
@@ -506,6 +506,78 @@
   </x:si>
   <x:si>
     <x:t>And we're back.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_LineTest_65J9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This should be fine.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_LineTest_XFQW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>So should this.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_FancyBarkTest_RR4G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fancy Bark 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_FancyBarkTest_D4KV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fancy Bark 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_FancyBarkTest_A2I1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fancy Bark 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_FancyBarkTest_3KK1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fancy Bark 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_FancyBarkTest_FF35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spinning on fancy bark 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_FancyBarkTest_23Q8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spinning on fancy bark 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_StringExpressionsTest_1L9A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Huh.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_StringExpressionsTest_ZHNZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Huh yourself.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_ListExpressionTest_LUCG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>List item 1.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_ListExpressionTest_JXXD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>List item 2.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -596,8 +668,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D78" totalsRowShown="0">
-  <x:autoFilter ref="A1:D78"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D90" totalsRowShown="0">
+  <x:autoFilter ref="A1:D90"/>
   <x:tableColumns count="4">
     <x:tableColumn id="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" name="Text" dataDxfId="0"/>
@@ -896,7 +968,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D78"/>
+  <x:dimension ref="A1:D90"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -905,7 +977,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="5" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="34.585625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="39.210625" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="37.960625" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="9.960625" style="1" customWidth="1"/>
     <x:col min="4" max="4" width="48.210625" style="1" customWidth="1"/>
@@ -2000,6 +2072,174 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D78" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A79" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B79" s="1" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C79" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D79" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A80" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B80" s="1" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C80" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D80" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A81" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B81" s="1" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C81" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D81" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A82" s="1" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B82" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C82" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D82" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A83" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B83" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C83" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D83" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A84" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B84" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C84" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D84" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A85" s="1" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B85" s="1" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C85" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D85" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A86" s="1" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B86" s="1" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C86" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D86" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A87" s="1" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B87" s="1" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="C87" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D87" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A88" s="1" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B88" s="1" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="C88" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D88" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A89" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B89" s="1" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C89" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D89" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A90" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B90" s="1" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="C90" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D90" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>

--- a/tests/test1/output/main-loc.xlsx
+++ b/tests/test1/output/main-loc.xlsx
@@ -80,6 +80,12 @@
   </x:si>
   <x:si>
     <x:t>Glad that's over with!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_Q099</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Same snippet?</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_O037</x:t>
@@ -668,8 +674,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D90" totalsRowShown="0">
-  <x:autoFilter ref="A1:D90"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D91" totalsRowShown="0">
+  <x:autoFilter ref="A1:D91"/>
   <x:tableColumns count="4">
     <x:tableColumn id="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" name="Text" dataDxfId="0"/>
@@ -968,7 +974,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D90"/>
+  <x:dimension ref="A1:D91"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -1145,7 +1151,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
         <x:v>6</x:v>
@@ -1153,13 +1159,13 @@
     </x:row>
     <x:row r="13" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A13" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B13" s="1" t="s">
+      <x:c r="C13" s="1" t="s">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="C13" s="1" t="s">
-        <x:v>18</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
         <x:v>6</x:v>
@@ -1201,7 +1207,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
         <x:v>6</x:v>
@@ -1215,7 +1221,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
         <x:v>6</x:v>
@@ -1226,10 +1232,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
         <x:v>6</x:v>
@@ -1237,10 +1243,10 @@
     </x:row>
     <x:row r="19" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A19" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B19" s="1" t="s">
         <x:v>44</x:v>
-      </x:c>
-      <x:c r="B19" s="1" t="s">
-        <x:v>45</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
         <x:v>18</x:v>
@@ -1310,10 +1316,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
         <x:v>6</x:v>
@@ -1321,13 +1327,13 @@
     </x:row>
     <x:row r="25" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A25" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
         <x:v>6</x:v>
@@ -1335,13 +1341,13 @@
     </x:row>
     <x:row r="26" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A26" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
         <x:v>6</x:v>
@@ -1383,7 +1389,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="C29" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D29" s="1" t="s">
         <x:v>6</x:v>
@@ -1397,7 +1403,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
         <x:v>6</x:v>
@@ -1411,7 +1417,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
         <x:v>6</x:v>
@@ -1419,13 +1425,13 @@
     </x:row>
     <x:row r="32" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A32" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B32" s="1" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="B32" s="1" t="s">
+      <x:c r="C32" s="1" t="s">
         <x:v>70</x:v>
-      </x:c>
-      <x:c r="C32" s="1" t="s">
-        <x:v>6</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
         <x:v>6</x:v>
@@ -1439,7 +1445,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
         <x:v>6</x:v>
@@ -1453,7 +1459,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="C34" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D34" s="1" t="s">
         <x:v>6</x:v>
@@ -1467,7 +1473,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
         <x:v>6</x:v>
@@ -1481,7 +1487,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
         <x:v>6</x:v>
@@ -1495,7 +1501,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
         <x:v>6</x:v>
@@ -1512,49 +1518,49 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A39" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B39" s="1" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="B39" s="1" t="s">
+      <x:c r="C39" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D39" s="1" t="s">
         <x:v>85</x:v>
-      </x:c>
-      <x:c r="C39" s="1" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D39" s="1" t="s">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A40" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B40" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="B40" s="1" t="s">
+      <x:c r="C40" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="C40" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A41" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B41" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="B41" s="1" t="s">
+      <x:c r="C41" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D41" s="1" t="s">
         <x:v>91</x:v>
-      </x:c>
-      <x:c r="C41" s="1" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D41" s="1" t="s">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4" ht="13.5" customHeight="1">
@@ -1565,7 +1571,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
         <x:v>6</x:v>
@@ -1579,7 +1585,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
         <x:v>6</x:v>
@@ -1593,7 +1599,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
         <x:v>6</x:v>
@@ -1607,7 +1613,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
         <x:v>6</x:v>
@@ -1621,7 +1627,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
         <x:v>6</x:v>
@@ -1635,7 +1641,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
         <x:v>6</x:v>
@@ -1646,10 +1652,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B48" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
         <x:v>6</x:v>
@@ -1657,13 +1663,13 @@
     </x:row>
     <x:row r="49" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A49" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B49" s="1" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="B49" s="1" t="s">
-        <x:v>106</x:v>
-      </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
         <x:v>6</x:v>
@@ -1677,7 +1683,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D50" s="1" t="s">
         <x:v>6</x:v>
@@ -1688,10 +1694,10 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="B51" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>6</x:v>
@@ -1699,13 +1705,13 @@
     </x:row>
     <x:row r="52" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A52" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B52" s="1" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="B52" s="1" t="s">
-        <x:v>111</x:v>
-      </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>6</x:v>
@@ -1719,7 +1725,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>6</x:v>
@@ -1733,7 +1739,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
         <x:v>6</x:v>
@@ -1747,7 +1753,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
         <x:v>6</x:v>
@@ -1775,7 +1781,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
         <x:v>6</x:v>
@@ -1789,7 +1795,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
         <x:v>6</x:v>
@@ -1803,7 +1809,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
         <x:v>6</x:v>
@@ -1817,7 +1823,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
         <x:v>6</x:v>
@@ -1831,7 +1837,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
         <x:v>6</x:v>
@@ -1845,7 +1851,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
         <x:v>6</x:v>
@@ -1859,7 +1865,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
         <x:v>6</x:v>
@@ -1873,7 +1879,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
         <x:v>6</x:v>
@@ -1887,7 +1893,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
         <x:v>6</x:v>
@@ -1901,7 +1907,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
         <x:v>6</x:v>
@@ -1915,7 +1921,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
         <x:v>6</x:v>
@@ -1929,7 +1935,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="C68" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D68" s="1" t="s">
         <x:v>6</x:v>
@@ -1957,7 +1963,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="C70" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D70" s="1" t="s">
         <x:v>6</x:v>
@@ -1971,7 +1977,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="C71" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D71" s="1" t="s">
         <x:v>6</x:v>
@@ -1985,7 +1991,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="C72" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D72" s="1" t="s">
         <x:v>6</x:v>
@@ -1999,7 +2005,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="C73" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D73" s="1" t="s">
         <x:v>6</x:v>
@@ -2013,7 +2019,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="C74" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D74" s="1" t="s">
         <x:v>6</x:v>
@@ -2027,7 +2033,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="C75" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D75" s="1" t="s">
         <x:v>6</x:v>
@@ -2041,7 +2047,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="C76" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D76" s="1" t="s">
         <x:v>6</x:v>
@@ -2055,7 +2061,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="C77" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D77" s="1" t="s">
         <x:v>6</x:v>
@@ -2069,7 +2075,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="C78" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D78" s="1" t="s">
         <x:v>6</x:v>
@@ -2083,7 +2089,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="C79" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D79" s="1" t="s">
         <x:v>6</x:v>
@@ -2097,7 +2103,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="C80" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D80" s="1" t="s">
         <x:v>6</x:v>
@@ -2111,7 +2117,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="C81" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D81" s="1" t="s">
         <x:v>6</x:v>
@@ -2195,7 +2201,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="C87" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D87" s="1" t="s">
         <x:v>6</x:v>
@@ -2209,7 +2215,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="C88" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D88" s="1" t="s">
         <x:v>6</x:v>
@@ -2223,7 +2229,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="C89" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D89" s="1" t="s">
         <x:v>6</x:v>
@@ -2237,9 +2243,23 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="C90" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D90" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:4" ht="13.5" customHeight="1">
+      <x:c r="A91" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B91" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C91" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D91" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>

--- a/tests/test1/output/main-loc.xlsx
+++ b/tests/test1/output/main-loc.xlsx
@@ -151,13 +151,13 @@
     <x:t>This is a line.</x:t>
   </x:si>
   <x:si>
+    <x:t>main_Recording_PartB_1RQS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is also a line.</x:t>
+  </x:si>
+  <x:si>
     <x:t>main_Recording_PartB_FH4U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartB_1RQS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is also a line.</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_JITN</x:t>
@@ -1246,7 +1246,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
         <x:v>18</x:v>
@@ -1257,10 +1257,10 @@
     </x:row>
     <x:row r="20" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A20" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
         <x:v>18</x:v>
@@ -1344,7 +1344,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
         <x:v>34</x:v>

--- a/tests/test1/output/main-loc.xlsx
+++ b/tests/test1/output/main-loc.xlsx
@@ -151,13 +151,13 @@
     <x:t>This is a line.</x:t>
   </x:si>
   <x:si>
+    <x:t>main_Recording_PartB_FH4U</x:t>
+  </x:si>
+  <x:si>
     <x:t>main_Recording_PartB_1RQS</x:t>
   </x:si>
   <x:si>
     <x:t>This is also a line.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Recording_PartB_FH4U</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_JITN</x:t>
@@ -1246,7 +1246,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
         <x:v>18</x:v>
@@ -1257,10 +1257,10 @@
     </x:row>
     <x:row r="20" spans="1:4" ht="13.5" customHeight="1">
       <x:c r="A20" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B20" s="1" t="s">
         <x:v>47</x:v>
-      </x:c>
-      <x:c r="B20" s="1" t="s">
-        <x:v>44</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
         <x:v>18</x:v>
@@ -1344,7 +1344,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
         <x:v>34</x:v>
